--- a/COVID/chicago_covid_monthly.xlsx
+++ b/COVID/chicago_covid_monthly.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AnacondaProjects\CCC forecasting\COVID\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F214B8-EFC4-45D5-9903-B2D8AF2E2C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -112,116 +118,116 @@
     <t>year_month</t>
   </si>
   <si>
-    <t>2020.10</t>
-  </si>
-  <si>
-    <t>2020.11</t>
-  </si>
-  <si>
-    <t>2020.12</t>
-  </si>
-  <si>
-    <t>2020.3</t>
-  </si>
-  <si>
-    <t>2020.4</t>
-  </si>
-  <si>
-    <t>2020.5</t>
-  </si>
-  <si>
-    <t>2020.6</t>
-  </si>
-  <si>
-    <t>2020.7</t>
-  </si>
-  <si>
-    <t>2020.8</t>
-  </si>
-  <si>
-    <t>2020.9</t>
-  </si>
-  <si>
-    <t>2021.1</t>
-  </si>
-  <si>
-    <t>2021.10</t>
-  </si>
-  <si>
-    <t>2021.11</t>
-  </si>
-  <si>
-    <t>2021.12</t>
-  </si>
-  <si>
-    <t>2021.2</t>
-  </si>
-  <si>
-    <t>2021.3</t>
-  </si>
-  <si>
-    <t>2021.4</t>
-  </si>
-  <si>
-    <t>2021.5</t>
-  </si>
-  <si>
-    <t>2021.6</t>
-  </si>
-  <si>
-    <t>2021.7</t>
-  </si>
-  <si>
-    <t>2021.8</t>
-  </si>
-  <si>
-    <t>2021.9</t>
-  </si>
-  <si>
-    <t>2022.1</t>
-  </si>
-  <si>
-    <t>2022.10</t>
-  </si>
-  <si>
-    <t>2022.11</t>
-  </si>
-  <si>
-    <t>2022.12</t>
-  </si>
-  <si>
-    <t>2022.2</t>
-  </si>
-  <si>
-    <t>2022.3</t>
-  </si>
-  <si>
-    <t>2022.4</t>
-  </si>
-  <si>
-    <t>2022.5</t>
-  </si>
-  <si>
-    <t>2022.6</t>
-  </si>
-  <si>
-    <t>2022.7</t>
-  </si>
-  <si>
-    <t>2022.8</t>
-  </si>
-  <si>
-    <t>2022.9</t>
-  </si>
-  <si>
-    <t>2023.1</t>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>2020-4</t>
+  </si>
+  <si>
+    <t>2020-5</t>
+  </si>
+  <si>
+    <t>2020-6</t>
+  </si>
+  <si>
+    <t>2020-7</t>
+  </si>
+  <si>
+    <t>2020-8</t>
+  </si>
+  <si>
+    <t>2020-9</t>
+  </si>
+  <si>
+    <t>2021-1</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2021-2</t>
+  </si>
+  <si>
+    <t>2021-3</t>
+  </si>
+  <si>
+    <t>2021-4</t>
+  </si>
+  <si>
+    <t>2021-5</t>
+  </si>
+  <si>
+    <t>2021-6</t>
+  </si>
+  <si>
+    <t>2021-7</t>
+  </si>
+  <si>
+    <t>2021-8</t>
+  </si>
+  <si>
+    <t>2021-9</t>
+  </si>
+  <si>
+    <t>2022-1</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2022-2</t>
+  </si>
+  <si>
+    <t>2022-3</t>
+  </si>
+  <si>
+    <t>2022-4</t>
+  </si>
+  <si>
+    <t>2022-5</t>
+  </si>
+  <si>
+    <t>2022-6</t>
+  </si>
+  <si>
+    <t>2022-7</t>
+  </si>
+  <si>
+    <t>2022-8</t>
+  </si>
+  <si>
+    <t>2022-9</t>
+  </si>
+  <si>
+    <t>2023-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +290,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -330,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,14 +621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -676,7 +728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -774,7 +826,7 @@
         <v>14779</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -872,7 +924,7 @@
         <v>35332</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -970,7 +1022,7 @@
         <v>35672</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1068,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1166,7 +1218,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1264,7 +1316,7 @@
         <v>46522</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1362,7 +1414,7 @@
         <v>22915</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1460,7 +1512,7 @@
         <v>14710</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1610,7 @@
         <v>12641</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1656,7 +1708,7 @@
         <v>10744</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1754,7 +1806,7 @@
         <v>24466</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1852,7 +1904,7 @@
         <v>7622</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +2002,7 @@
         <v>9846</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2048,7 +2100,7 @@
         <v>24234</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2146,7 +2198,7 @@
         <v>13246</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2296,7 @@
         <v>9853</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,7 +2394,7 @@
         <v>14665</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -2440,7 +2492,7 @@
         <v>13351</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2538,7 +2590,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2636,7 +2688,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2786,7 @@
         <v>8941</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2832,7 +2884,7 @@
         <v>10453</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2930,7 +2982,7 @@
         <v>47241</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -3028,7 +3080,7 @@
         <v>7942</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -3126,7 +3178,7 @@
         <v>8171</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -3224,7 +3276,7 @@
         <v>12095</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -3322,7 +3374,7 @@
         <v>12199</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3420,7 +3472,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -3518,7 +3570,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -3616,7 +3668,7 @@
         <v>8870</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -3714,7 +3766,7 @@
         <v>9023</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -3812,7 +3864,7 @@
         <v>10146</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -3910,7 +3962,7 @@
         <v>10749</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -4008,7 +4060,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
